--- a/assets/xlsform/tutorial-2.xlsx
+++ b/assets/xlsform/tutorial-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51D8C60-2B12-4C05-B151-0679C7E10ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E76ADA7-879C-41E6-ABC2-E39A4971F8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9180" yWindow="3045" windowWidth="30135" windowHeight="15345" tabRatio="542" xr2:uid="{C50DDC91-227D-4C28-807B-6890084E472E}"/>
   </bookViews>
@@ -4618,10 +4618,10 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Tutorial</t>
-  </si>
-  <si>
     <t>bind::ct:save.snapLocation</t>
+  </si>
+  <si>
+    <t>Tutorial 2</t>
   </si>
 </sst>
 </file>
@@ -5015,72 +5015,6 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -5144,6 +5078,42 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5252,6 +5222,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -5274,6 +5264,16 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -5312,7 +5312,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E8BCF28F-4446-420A-A249-4C129790FE67}" name="tblSurvey" displayName="tblSurvey" ref="A1:R150" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E8BCF28F-4446-420A-A249-4C129790FE67}" name="tblSurvey" displayName="tblSurvey" ref="A1:R150" totalsRowShown="0" headerRowDxfId="15">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{022962FC-8CC9-4AB6-B048-71E74C206995}" name="type"/>
     <tableColumn id="2" xr3:uid="{6DA5C753-F0F7-4FC1-B05D-B91AAB5BAB3F}" name="name"/>
@@ -5338,24 +5338,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDEF4087-4080-4F8E-89ED-74C844BA4B83}" name="tblQuestionTypes" displayName="tblQuestionTypes" ref="A1:D30" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDEF4087-4080-4F8E-89ED-74C844BA4B83}" name="tblQuestionTypes" displayName="tblQuestionTypes" ref="A1:D30" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5569A296-72EF-49F5-AAE4-3D3F6FCD8CD5}" name="Question type" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{446F971D-0AFF-4279-840E-A2C6A8D1B118}" name="Description" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{1B8C18C7-2F93-4C0A-9671-6F73913CFB2C}" name="Field app" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{8C8D6D5B-C5A1-4E4C-8E30-41B268807ADA}" name="Web app" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{5569A296-72EF-49F5-AAE4-3D3F6FCD8CD5}" name="Question type" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{446F971D-0AFF-4279-840E-A2C6A8D1B118}" name="Description" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{1B8C18C7-2F93-4C0A-9671-6F73913CFB2C}" name="Field app" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{8C8D6D5B-C5A1-4E4C-8E30-41B268807ADA}" name="Web app" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EFADEFCE-A6FA-4E9A-9F3E-21F68ACF1AF3}" name="tblReserved" displayName="tblReserved" ref="A1:A1037" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EFADEFCE-A6FA-4E9A-9F3E-21F68ACF1AF3}" name="tblReserved" displayName="tblReserved" ref="A1:A1037" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A1037">
     <sortCondition ref="A2:A1037"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4724A0EE-AB51-48A2-8A08-2E650EEB5F07}" name="Reserved keywords" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{4724A0EE-AB51-48A2-8A08-2E650EEB5F07}" name="Reserved keywords" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5665,7 +5665,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F4" sqref="F4"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5673,7 +5673,7 @@
     <col min="1" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="59" customWidth="1"/>
     <col min="7" max="18" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5694,7 +5694,7 @@
         <v>1272</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>1270</v>
@@ -5776,7 +5776,7 @@
   <dataConsolidate/>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="B2:B150">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
   </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="A2:A150" xr:uid="{5A5EBDF2-8D76-4B72-B739-2B3433DFC758}">
@@ -5985,7 +5985,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6008,7 +6008,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B2">
         <v>2022101001</v>
@@ -6463,10 +6463,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:D30">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7676,10 +7676,10 @@
     <sortCondition ref="B44:B113"/>
   </sortState>
   <conditionalFormatting sqref="D2:E35">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9142,10 +9142,10 @@
     <mergeCell ref="D35:D37"/>
   </mergeCells>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B44">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{2C6D092A-0B0E-44BD-82D7-86DCBBE72CBA}"/>
